--- a/PIPESTONE_PPF_CLIENT_MODBUS_MAP_REV_3.xlsx
+++ b/PIPESTONE_PPF_CLIENT_MODBUS_MAP_REV_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougd\Desktop\git\OVINTIV_PIPESTONE_PPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dallin\Desktop\git\OVINTIV_PIPESTONE_PPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CDFBEA-99C1-42EB-8CEE-920DEB88F897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44A859-D4AC-43C5-AA97-D3B77E1B1931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="795" windowWidth="26730" windowHeight="14475" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Changes" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="A" localSheetId="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PPF_CLIENT_Datamap!$A$1:$O$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PPF_CLIENT_Datamap!$A$1:$P$82</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">PPF_CLIENT_Datamap!#REF!</definedName>
     <definedName name="SEAL_MATERIAL?" localSheetId="1">#REF!</definedName>
     <definedName name="SEAL_MATERIAL?">#REF!</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="306">
   <si>
     <t>From</t>
   </si>
@@ -1186,6 +1186,9 @@
   <si>
     <t>DD</t>
   </si>
+  <si>
+    <t>Verfied By</t>
+  </si>
 </sst>
 </file>
 
@@ -1193,9 +1196,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1403,8 +1406,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,18 +1605,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1887,15 +1889,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2000,7 +1993,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2034,9 +2027,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2093,20 +2083,27 @@
     <xf numFmtId="0" fontId="7" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2123,16 +2120,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="101">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2631,13 +2618,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="47"/>
+    <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -2659,7 +2646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2672,11 +2659,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="37">
         <v>43585</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2690,7 +2677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2703,7 +2690,7 @@
       <c r="D5" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="37">
         <v>44001</v>
       </c>
     </row>
@@ -2721,3300 +2708,3362 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:O20"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="24" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="41.88671875" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="41.85546875" customWidth="1"/>
+    <col min="15" max="16" width="24.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="H3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="20" t="s">
+      <c r="H4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="20" t="s">
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="20" t="s">
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="17"/>
-    </row>
-    <row r="8" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="20" t="s">
+      <c r="H8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="17"/>
-    </row>
-    <row r="10" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="20" t="s">
+      <c r="H10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="F11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="20" t="s">
+      <c r="H11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="20" t="s">
+      <c r="H12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="20" t="s">
+      <c r="H13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="37" t="s">
+      <c r="F14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="20" t="s">
+      <c r="H14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="20" t="s">
+      <c r="H15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="H16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="20" t="s">
+      <c r="H17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="33" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="20" t="s">
+      <c r="H18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="20" t="s">
+      <c r="H19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="20" t="s">
+      <c r="H21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="37" t="s">
+      <c r="F22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="20" t="s">
+      <c r="H22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="20" t="s">
+      <c r="H23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="F24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="20" t="s">
+      <c r="H24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="34"/>
-    </row>
-    <row r="25" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="37" t="s">
+      <c r="F25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="20" t="s">
+      <c r="H25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="37" t="s">
+      <c r="F26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="20" t="s">
+      <c r="H26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="20" t="s">
+      <c r="M26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="37" t="s">
+      <c r="F27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="20" t="s">
+      <c r="H27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="17"/>
-      <c r="P27" s="34"/>
-    </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="37" t="s">
+      <c r="F28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="20" t="s">
+      <c r="H28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="O28" s="17"/>
-      <c r="P28" s="34"/>
-    </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="37" t="s">
+      <c r="F29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="20" t="s">
+      <c r="H29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="20" t="s">
+      <c r="M29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="37" t="s">
+      <c r="F30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="20" t="s">
+      <c r="H30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="34"/>
-    </row>
-    <row r="31" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="20" t="s">
+      <c r="H31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="34"/>
-    </row>
-    <row r="32" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="20" t="s">
+      <c r="H32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O32" s="35" t="s">
+      <c r="O32" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="P32" s="34"/>
-    </row>
-    <row r="33" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="20" t="s">
+      <c r="H33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="20" t="s">
+      <c r="M33" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" spans="1:16" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" s="15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="20" t="s">
+      <c r="H34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="34"/>
-    </row>
-    <row r="35" spans="1:16" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>33</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="46"/>
-    </row>
-    <row r="36" spans="1:16" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="40"/>
+    </row>
+    <row r="36" spans="1:16" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="F36" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="36">
         <v>40001</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="H36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="19">
         <v>0</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>60</v>
       </c>
-      <c r="K36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" s="30" t="s">
+      <c r="K36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="O36" s="17" t="s">
+      <c r="O36" s="16" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-    </row>
-    <row r="38" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="40"/>
+    </row>
+    <row r="38" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>36</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="38">
+      <c r="F38" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="36">
         <v>40010</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="20">
+      <c r="H38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="19">
         <v>0</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="19">
         <v>3500</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="21"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="20"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>37</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="38">
+      <c r="F39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="36">
         <v>40012</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="20">
+      <c r="H39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="19">
         <v>-20</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="19">
         <v>80</v>
       </c>
-      <c r="K39" s="20" t="s">
+      <c r="K39" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="L39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="21"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" s="16" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="20"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" s="15" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="38">
+      <c r="F40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="36">
         <v>40014</v>
       </c>
-      <c r="H40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="20">
+      <c r="H40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="19">
         <v>0</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="19">
         <v>100</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="20"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>39</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="38">
+      <c r="F41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="36">
         <v>40016</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="20">
+      <c r="H41" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="19">
         <v>0</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="19">
         <v>100</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="17"/>
-    </row>
-    <row r="42" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="20"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>40</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="38">
+      <c r="F42" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="36">
         <v>40018</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="20">
+      <c r="H42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="19">
         <v>100</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="17"/>
-    </row>
-    <row r="43" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="20"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>41</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="38">
+      <c r="F43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="36">
         <v>40020</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="20">
+      <c r="H43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="19">
         <v>100</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L43" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="20"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>42</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="38">
+      <c r="F44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="36">
         <v>40022</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="20">
+      <c r="H44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="19">
         <v>100</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="20"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>43</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="38">
+      <c r="F45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="36">
         <v>40024</v>
       </c>
-      <c r="H45" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="20">
+      <c r="H45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="19">
         <v>0</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="19">
         <v>100</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L45" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="20"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="38">
+      <c r="F46" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="36">
         <v>40026</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="20">
+      <c r="H46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="19">
         <v>0</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="19">
         <v>100</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="17"/>
-    </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="20"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>45</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="18" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="38">
+      <c r="F47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="36">
         <v>40028</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47" s="20">
+      <c r="H47" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="19">
         <v>0</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <v>100</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L47" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="17"/>
-    </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="20"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>46</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="38">
+      <c r="F48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="36">
         <v>40030</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="20">
+      <c r="H48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>100</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N48" s="21"/>
-      <c r="O48" s="35"/>
-    </row>
-    <row r="49" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="20"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+    </row>
+    <row r="49" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>47</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="38">
+      <c r="F49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="36">
         <v>40032</v>
       </c>
-      <c r="H49" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="20">
+      <c r="H49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="19">
         <v>0</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>100</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M49" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N49" s="21"/>
-      <c r="O49" s="35"/>
-    </row>
-    <row r="50" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="20"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+    </row>
+    <row r="50" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>48</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="38">
+      <c r="F50" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="36">
         <v>40034</v>
       </c>
-      <c r="H50" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="20">
+      <c r="H50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="19">
         <v>0</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="19">
         <v>100</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N50" s="21"/>
-      <c r="O50" s="35"/>
-    </row>
-    <row r="51" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="20"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+    </row>
+    <row r="51" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>49</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="38">
+      <c r="F51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="36">
         <v>40036</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I51" s="20">
+      <c r="H51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="19">
         <v>0</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="19">
         <v>100</v>
       </c>
-      <c r="K51" s="20" t="s">
+      <c r="K51" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="21"/>
-      <c r="O51" s="35"/>
-    </row>
-    <row r="52" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="20"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+    </row>
+    <row r="52" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="38">
+      <c r="F52" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="36">
         <v>40038</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I52" s="20">
+      <c r="H52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="19">
         <v>0</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <v>100</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="21"/>
-      <c r="O52" s="35"/>
-    </row>
-    <row r="53" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="20"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+    </row>
+    <row r="53" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>51</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="38">
+      <c r="F53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="36">
         <v>40040</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="20">
+      <c r="H53" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="19">
         <v>0</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="19">
         <v>100</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="21"/>
-      <c r="O53" s="35"/>
-    </row>
-    <row r="54" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="20"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+    </row>
+    <row r="54" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>52</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F54" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="38">
+      <c r="F54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="36">
         <v>40042</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="20">
+      <c r="H54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="19">
         <v>0</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="19">
         <v>100</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="21"/>
-      <c r="O54" s="35"/>
-    </row>
-    <row r="55" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="20"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+    </row>
+    <row r="55" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="38">
+      <c r="F55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="36">
         <v>40044</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="20">
+      <c r="H55" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="19">
         <v>0</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="19">
         <v>100</v>
       </c>
-      <c r="K55" s="20" t="s">
+      <c r="K55" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L55" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" s="21"/>
-      <c r="O55" s="35"/>
-    </row>
-    <row r="56" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="20"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+    </row>
+    <row r="56" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>54</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="38">
+      <c r="F56" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="36">
         <v>40046</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="20">
+      <c r="H56" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="19">
         <v>0</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="19">
         <v>100</v>
       </c>
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" s="21"/>
-      <c r="O56" s="35"/>
-    </row>
-    <row r="57" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="20"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+    </row>
+    <row r="57" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>55</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="38">
+      <c r="F57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" s="36">
         <v>40048</v>
       </c>
-      <c r="H57" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" s="20">
+      <c r="H57" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="19">
         <v>0</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="19">
         <v>100</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L57" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N57" s="21"/>
-      <c r="O57" s="35"/>
-    </row>
-    <row r="58" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M57" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="20"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+    </row>
+    <row r="58" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>56</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="38">
+      <c r="F58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="36">
         <v>40050</v>
       </c>
-      <c r="H58" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" s="20">
+      <c r="H58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="19">
         <v>0</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="19">
         <v>100</v>
       </c>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="21"/>
-      <c r="O58" s="35"/>
-    </row>
-    <row r="59" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="20"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+    </row>
+    <row r="59" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>57</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="38">
+      <c r="F59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="36">
         <v>40052</v>
       </c>
-      <c r="H59" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="20">
+      <c r="H59" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="19">
         <v>0</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="19">
         <v>100</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M59" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N59" s="21"/>
-      <c r="O59" s="35"/>
-    </row>
-    <row r="60" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="20"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+    </row>
+    <row r="60" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="38">
+      <c r="F60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="36">
         <v>40054</v>
       </c>
-      <c r="H60" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="20">
+      <c r="H60" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="19">
         <v>0</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="19">
         <v>100</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="K60" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="21"/>
-      <c r="O60" s="35"/>
-    </row>
-    <row r="61" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="20"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+    </row>
+    <row r="61" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>59</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="38">
+      <c r="F61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="36">
         <v>40056</v>
       </c>
-      <c r="H61" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="20">
+      <c r="H61" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="19">
         <v>0</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="19">
         <v>100</v>
       </c>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L61" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M61" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="21"/>
-      <c r="O61" s="35"/>
-    </row>
-    <row r="62" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="20"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+    </row>
+    <row r="62" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>60</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="38">
+      <c r="F62" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="36">
         <v>40058</v>
       </c>
-      <c r="H62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="20">
+      <c r="H62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="19">
         <v>0</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="19">
         <v>100</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N62" s="21"/>
-      <c r="O62" s="35"/>
-    </row>
-    <row r="63" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="20"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+    </row>
+    <row r="63" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>61</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18" t="s">
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="38">
+      <c r="F63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="36">
         <v>40060</v>
       </c>
-      <c r="H63" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" s="20">
+      <c r="H63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" s="19">
         <v>0</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="19">
         <v>150</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L63" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63" s="21"/>
-      <c r="O63" s="35"/>
-    </row>
-    <row r="64" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" s="20"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+    </row>
+    <row r="64" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>62</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="38">
+      <c r="F64" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="36">
         <v>40062</v>
       </c>
-      <c r="H64" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I64" s="20">
+      <c r="H64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="19">
         <v>0</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="19">
         <v>100</v>
       </c>
-      <c r="K64" s="20" t="s">
+      <c r="K64" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="L64" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N64" s="21" t="s">
+      <c r="L64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="O64" s="35"/>
-    </row>
-    <row r="65" spans="1:15" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+    </row>
+    <row r="65" spans="1:16" s="15" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>63</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="46"/>
-    </row>
-    <row r="66" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="40"/>
+    </row>
+    <row r="66" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>64</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="38">
+      <c r="F66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="36">
         <v>40110</v>
       </c>
-      <c r="H66" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="20">
+      <c r="H66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="19">
         <v>0</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="19">
         <v>3500</v>
       </c>
-      <c r="K66" s="20" t="s">
+      <c r="K66" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="L66" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M66" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N66" s="21"/>
-      <c r="O66" s="17"/>
-    </row>
-    <row r="67" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="20"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>65</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F67" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="38">
+      <c r="F67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="36">
         <v>40112</v>
       </c>
-      <c r="H67" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I67" s="20">
+      <c r="H67" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="19">
         <v>-20</v>
       </c>
-      <c r="J67" s="20">
+      <c r="J67" s="19">
         <v>80</v>
       </c>
-      <c r="K67" s="20" t="s">
+      <c r="K67" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="L67" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N67" s="21"/>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" s="16" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="20"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="1:16" s="15" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>66</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="38">
+      <c r="F68" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" s="36">
         <v>40114</v>
       </c>
-      <c r="H68" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="20">
+      <c r="H68" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="19">
         <v>0</v>
       </c>
-      <c r="J68" s="20">
+      <c r="J68" s="19">
         <v>100</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="L68" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M68" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" s="21"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="20"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>67</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="38">
+      <c r="F69" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="36">
         <v>40116</v>
       </c>
-      <c r="H69" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I69" s="20">
+      <c r="H69" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" s="19">
         <v>0</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J69" s="19">
         <v>100</v>
       </c>
-      <c r="K69" s="20" t="s">
+      <c r="K69" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L69" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M69" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N69" s="21"/>
-      <c r="O69" s="17"/>
-    </row>
-    <row r="70" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L69" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" s="20"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>68</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="38">
+      <c r="F70" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="36">
         <v>40118</v>
       </c>
-      <c r="H70" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="20">
+      <c r="H70" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="19">
         <v>0</v>
       </c>
-      <c r="J70" s="20">
+      <c r="J70" s="19">
         <v>100</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K70" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L70" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M70" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N70" s="21"/>
-      <c r="O70" s="17"/>
-    </row>
-    <row r="71" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L70" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" s="20"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>69</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F71" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="38">
+      <c r="F71" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="36">
         <v>40120</v>
       </c>
-      <c r="H71" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I71" s="20">
+      <c r="H71" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71" s="19">
         <v>0</v>
       </c>
-      <c r="J71" s="20">
+      <c r="J71" s="19">
         <v>100</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K71" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L71" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N71" s="21"/>
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M71" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" s="20"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>70</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="38">
+      <c r="F72" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="36">
         <v>40122</v>
       </c>
-      <c r="H72" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="20">
+      <c r="H72" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" s="19">
         <v>0</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="19">
         <v>100</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="K72" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L72" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" s="21"/>
-      <c r="O72" s="17"/>
-    </row>
-    <row r="73" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" s="20"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+    </row>
+    <row r="73" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>71</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F73" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" s="38">
+      <c r="F73" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="36">
         <v>40124</v>
       </c>
-      <c r="H73" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="20">
+      <c r="H73" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="19">
         <v>0</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="19">
         <v>100</v>
       </c>
-      <c r="K73" s="20" t="s">
+      <c r="K73" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L73" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M73" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N73" s="21"/>
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L73" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M73" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="20"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>72</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="38">
+      <c r="F74" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="36">
         <v>40126</v>
       </c>
-      <c r="H74" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" s="20">
+      <c r="H74" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="19">
         <v>0</v>
       </c>
-      <c r="J74" s="20">
+      <c r="J74" s="19">
         <v>100</v>
       </c>
-      <c r="K74" s="20" t="s">
+      <c r="K74" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L74" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M74" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N74" s="21"/>
-      <c r="O74" s="17"/>
-    </row>
-    <row r="75" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L74" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="20"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+    </row>
+    <row r="75" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>73</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="38">
+      <c r="F75" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" s="36">
         <v>40128</v>
       </c>
-      <c r="H75" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="20">
+      <c r="H75" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="19">
         <v>0</v>
       </c>
-      <c r="J75" s="20">
+      <c r="J75" s="19">
         <v>100</v>
       </c>
-      <c r="K75" s="20" t="s">
+      <c r="K75" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L75" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N75" s="21"/>
-      <c r="O75" s="17"/>
-    </row>
-    <row r="76" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="20"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+    </row>
+    <row r="76" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>74</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="38">
+      <c r="F76" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" s="36">
         <v>40130</v>
       </c>
-      <c r="H76" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" s="20">
+      <c r="H76" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="19">
         <v>0</v>
       </c>
-      <c r="J76" s="20">
+      <c r="J76" s="19">
         <v>100</v>
       </c>
-      <c r="K76" s="20" t="s">
+      <c r="K76" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="L76" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" s="21"/>
-      <c r="O76" s="17"/>
-    </row>
-    <row r="77" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="20"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+    </row>
+    <row r="77" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>75</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F77" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="38">
+      <c r="F77" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="36">
         <v>40132</v>
       </c>
-      <c r="H77" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="20">
+      <c r="H77" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="19">
         <v>0</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="19">
         <v>100</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N77" s="21"/>
-      <c r="O77" s="17"/>
-    </row>
-    <row r="78" spans="1:15" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" s="20"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+    </row>
+    <row r="78" spans="1:16" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>76</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="38">
+      <c r="F78" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" s="36">
         <v>40136</v>
       </c>
-      <c r="H78" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I78" s="20">
+      <c r="H78" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="19">
         <v>0</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="19">
         <v>100</v>
       </c>
-      <c r="K78" s="20" t="s">
+      <c r="K78" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M78" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N78" s="21"/>
-      <c r="O78" s="17"/>
-    </row>
-    <row r="82" spans="2:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
+      <c r="L78" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" s="20"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+    </row>
+    <row r="82" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6026,6 +6075,7 @@
     <mergeCell ref="B20:O20"/>
     <mergeCell ref="B35:O35"/>
   </mergeCells>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="3" scale="62" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6049,16 +6099,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>228</v>
       </c>
@@ -6066,7 +6116,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -6074,7 +6124,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>231</v>
       </c>
@@ -6082,7 +6132,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>233</v>
       </c>
@@ -6090,7 +6140,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>235</v>
       </c>
@@ -6098,7 +6148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>237</v>
       </c>
@@ -6106,7 +6156,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>239</v>
       </c>
@@ -6114,7 +6164,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
@@ -6122,7 +6172,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>243</v>
       </c>
@@ -6130,7 +6180,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="42" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>245</v>
       </c>
@@ -6138,7 +6188,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>247</v>
       </c>
@@ -6146,7 +6196,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="42" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>249</v>
       </c>
@@ -6154,7 +6204,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>251</v>
       </c>
@@ -6162,7 +6212,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>253</v>
       </c>
@@ -6172,7 +6222,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>254</v>
       </c>
@@ -6182,7 +6232,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>255</v>
       </c>
@@ -6192,7 +6242,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>256</v>
       </c>
@@ -6412,18 +6462,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6446,18 +6496,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D610DB-2612-46C9-BC3A-E7E198938908}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E7456FA-3502-4744-AF75-C74DDC4FA618}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>